--- a/Research-Project/final-rubric.xlsx
+++ b/Research-Project/final-rubric.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dbhagia/Dropbox (CSU Fullerton)/Teaching/Econ340/Research-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D487979B-73C2-BA4B-B7A7-440EE1D34420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4447CF6-76FE-414E-B73D-7A1CD5F6F6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="500" windowWidth="30080" windowHeight="19960" xr2:uid="{5F5E5395-EDEE-AA41-90EB-5510CF5BE07E}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{5F5E5395-EDEE-AA41-90EB-5510CF5BE07E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170BC48A-5C7A-1941-956A-C10534CD8C16}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1080,7 +1080,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="3" t="s">
         <v>85</v>

--- a/Research-Project/final-rubric.xlsx
+++ b/Research-Project/final-rubric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dbhagia/Dropbox (CSU Fullerton)/Teaching/Econ340/Research-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4447CF6-76FE-414E-B73D-7A1CD5F6F6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BF80CE-37E6-224F-9472-991A7ABD8845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{5F5E5395-EDEE-AA41-90EB-5510CF5BE07E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19480" xr2:uid="{5F5E5395-EDEE-AA41-90EB-5510CF5BE07E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -326,15 +326,6 @@
     <t>Empirical Strategy (15 points)</t>
   </si>
   <si>
-    <t>Results and Analysis (25 points)</t>
-  </si>
-  <si>
-    <t>Writing and Grammar (10 points)</t>
-  </si>
-  <si>
-    <t>Format and Coherence (10 points)</t>
-  </si>
-  <si>
     <t>Conclusion (10 points)</t>
   </si>
   <si>
@@ -352,6 +343,15 @@
   <si>
     <t>Unsatisfactory &lt;br&gt;
 (&lt; 60%)</t>
+  </si>
+  <si>
+    <t>Results and Analysis (20 points)</t>
+  </si>
+  <si>
+    <t>Format and Coherence (7.5 points)</t>
+  </si>
+  <si>
+    <t>Writing and Grammar (7.5 points)</t>
   </si>
 </sst>
 </file>
@@ -517,9 +517,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -557,7 +557,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -663,7 +663,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -805,7 +805,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -815,17 +815,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170BC48A-5C7A-1941-956A-C10534CD8C16}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="52.5" customWidth="1"/>
-    <col min="3" max="3" width="43.1640625" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -1020,7 +1020,7 @@
     </row>
     <row r="13" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>32</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="18" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>48</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="20" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>55</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="22" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>63</v>
@@ -1220,7 +1220,7 @@
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A19"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Research-Project/final-rubric.xlsx
+++ b/Research-Project/final-rubric.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dbhagia/Dropbox (CSU Fullerton)/Teaching/Econ340/Research-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dbhagia/CSU Fullerton Dropbox/Div Bhagia/Teaching/Econ340/Research-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BF80CE-37E6-224F-9472-991A7ABD8845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA75D9A-EF3A-774B-AD77-61905F5CBD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19480" xr2:uid="{5F5E5395-EDEE-AA41-90EB-5510CF5BE07E}"/>
   </bookViews>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170BC48A-5C7A-1941-956A-C10534CD8C16}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
